--- a/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_psíq_R-Edad-trans_dic.xlsx
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.002064309251451905</v>
+        <v>0.002069869657340647</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01016063406124499</v>
+        <v>0.01018040574004894</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00876670544687657</v>
+        <v>0.006877416919375087</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006233190943664269</v>
+        <v>0.006283216877207438</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006596565578166511</v>
+        <v>0.005668406194288947</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.001338613475764093</v>
+        <v>0.001580898369002731</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01239600311620909</v>
+        <v>0.01289983458937743</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.0171256482845136</v>
+        <v>0.01698195719172701</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02155007968857756</v>
+        <v>0.01866017017469528</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06200567391319558</v>
+        <v>0.06301217570174458</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01246868347397321</v>
+        <v>0.01063545067594176</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0340127934587485</v>
+        <v>0.03441590905767825</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01733957872791702</v>
+        <v>0.01469796235406751</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06053606501724276</v>
+        <v>0.05710973033289121</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.005100486441004704</v>
+        <v>0.005463165009335668</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0195308894261615</v>
+        <v>0.02087881290128211</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01488314542888888</v>
+        <v>0.01314927177231779</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04979883091998751</v>
+        <v>0.049150666477346</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001189216242486147</v>
+        <v>0.001195203254468041</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00713746705715541</v>
+        <v>0.00694577634104679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00308680106946673</v>
+        <v>0.003136508719802306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002560600011681819</v>
+        <v>0.002555697332492782</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0</v>
+        <v>0.001532696468636525</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003288162095571655</v>
+        <v>0.003082845635848522</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004942077730289467</v>
+        <v>0.005002889700903158</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01552958218480481</v>
+        <v>0.014407815640781</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.001986843596004797</v>
+        <v>0.002082214544753085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006685367802508102</v>
+        <v>0.00671098204695489</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.00419516586701478</v>
+        <v>0.004879296244219323</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01091055788262389</v>
+        <v>0.01106401394826635</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01151190225829697</v>
+        <v>0.01103533252844095</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02751773083781186</v>
+        <v>0.02843564467610198</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01778408663180067</v>
+        <v>0.01657585483285072</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03022526637214525</v>
+        <v>0.02667396241770548</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01271025051868424</v>
+        <v>0.01303824105540944</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02152293131874735</v>
+        <v>0.01976986116391438</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02194560760008005</v>
+        <v>0.02207802251369187</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04926247536211643</v>
+        <v>0.0517456906208093</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008870769269473871</v>
+        <v>0.009808103412320041</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02039015406057011</v>
+        <v>0.02088587351934636</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01500107756002574</v>
+        <v>0.01617703976896111</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03292064674424385</v>
+        <v>0.03075307400274477</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.008516848482825206</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02250347698049229</v>
+        <v>0.02250347698049228</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002470060633214287</v>
+        <v>0.001767342525989475</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.005557063220709719</v>
+        <v>0.005420582511459262</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001343498253410952</v>
+        <v>0.001339708075235749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005831609477210562</v>
+        <v>0.006170608244509442</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004453231685158602</v>
+        <v>0.004400083383530971</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01916726890864294</v>
+        <v>0.01838093024999447</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005823876215316927</v>
+        <v>0.006924992032346453</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02112608564868543</v>
+        <v>0.02125960102513942</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005211622240244506</v>
+        <v>0.004960153376165033</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01399660951477831</v>
+        <v>0.01459480762037275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004334208304435172</v>
+        <v>0.004306578188540134</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01591917928907948</v>
+        <v>0.01538534367789855</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02228252199784858</v>
+        <v>0.02280229168084539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02668393251170063</v>
+        <v>0.02589708074142049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01331792841547609</v>
+        <v>0.01180028615583144</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02596376974652318</v>
+        <v>0.02526417812518541</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02147654432494436</v>
+        <v>0.02092984165842499</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04469802519470907</v>
+        <v>0.04488814379304754</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02327646813653776</v>
+        <v>0.02301089766890902</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04557750162350769</v>
+        <v>0.04574137136568111</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0173464966849018</v>
+        <v>0.01683269373040604</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03109763400937229</v>
+        <v>0.03116195214222038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01429238592862466</v>
+        <v>0.01433902921518129</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03139975622592683</v>
+        <v>0.03052139303936596</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.01103951567745338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02945881895149712</v>
+        <v>0.02945881895149711</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01926155011506536</v>
@@ -1101,7 +1101,7 @@
         <v>0.01263040219255917</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02975858409742367</v>
+        <v>0.02975858409742368</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007717242504947154</v>
+        <v>0.007809486242637432</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0102871078869915</v>
+        <v>0.01008238705792557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004829021003411515</v>
+        <v>0.004875705747222835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01844342212574319</v>
+        <v>0.0188539764754196</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009555113034785033</v>
+        <v>0.009546280191966187</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01549455084224555</v>
+        <v>0.01492386125470273</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006315917967385547</v>
+        <v>0.007856074575987583</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02192976776861287</v>
+        <v>0.02141341740661972</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01138804156837874</v>
+        <v>0.01174161534545004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01553832479541943</v>
+        <v>0.01517050996458822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007194292302529163</v>
+        <v>0.00705366756482687</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02183110800902793</v>
+        <v>0.02193750792239921</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03154161398216519</v>
+        <v>0.03237935588308865</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03910754507530027</v>
+        <v>0.03944286074117245</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02511544466844989</v>
+        <v>0.02293250135972741</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04429836018381327</v>
+        <v>0.04490131641089903</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03625996987349523</v>
+        <v>0.03313175690403704</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04178753818660468</v>
+        <v>0.04095497449589622</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02545601489549551</v>
+        <v>0.02741200976973279</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04230188976322796</v>
+        <v>0.04103799797568482</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02867197019817233</v>
+        <v>0.03025260078964998</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03427228824504996</v>
+        <v>0.03377426972966387</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02094871147659071</v>
+        <v>0.02175264644029102</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03834913765685427</v>
+        <v>0.03808521939952965</v>
       </c>
     </row>
     <row r="16">
@@ -1251,37 +1251,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01337612679618869</v>
+        <v>0.01188257606182308</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006069025523072041</v>
+        <v>0.00598457730337359</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01543652791088533</v>
+        <v>0.01611027042085377</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.006022548112330681</v>
+        <v>0.006031900508450532</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0111101250969115</v>
+        <v>0.01146158031320675</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01193224588153965</v>
+        <v>0.01208275750779566</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01406411236703583</v>
+        <v>0.01450627854027972</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.004883829859553882</v>
+        <v>0.004143212638247243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01401276804403656</v>
+        <v>0.01470125173993426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01125714432744964</v>
+        <v>0.01111179283387581</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01693162182178117</v>
+        <v>0.01743103127003518</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01600354228116498</v>
+        <v>0.01819077581695519</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04500617003438046</v>
+        <v>0.04307453208582915</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03182402138827164</v>
+        <v>0.03117565419152681</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0417724720280137</v>
+        <v>0.04177741628957039</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03305406372322091</v>
+        <v>0.03496839466478172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04050401067461814</v>
+        <v>0.04356329452972832</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04608407970120804</v>
+        <v>0.04446153897024611</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03382245300936412</v>
+        <v>0.03249655368944093</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01985102224487765</v>
+        <v>0.02160121120599917</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03467731968466284</v>
+        <v>0.03640784197171087</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03237480950940271</v>
+        <v>0.03280199311937709</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03250559432608388</v>
+        <v>0.03330573912372278</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.02214407029391456</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03040661071106432</v>
+        <v>0.03040661071106433</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003108963948238311</v>
+        <v>0.003226410489609059</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01505079332588624</v>
+        <v>0.01320385460441375</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008377708152404429</v>
+        <v>0.008426713732306792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01617190250657231</v>
+        <v>0.01560551655349643</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.005216003703431925</v>
+        <v>0.005242172349614833</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.002754205803785814</v>
+        <v>0.002726875489431702</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01303351363536184</v>
+        <v>0.01278847144365622</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02266538017098751</v>
+        <v>0.02262105665974963</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.007025819625352399</v>
+        <v>0.005895659259684561</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01029193928251026</v>
+        <v>0.01118196796791699</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01236432708421458</v>
+        <v>0.0127216032705773</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02128517667238932</v>
+        <v>0.02157619711433042</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02872025104221214</v>
+        <v>0.02864807838972205</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05709391839715647</v>
+        <v>0.05774875985862356</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0376660318097457</v>
+        <v>0.03481721417784991</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04244397977684511</v>
+        <v>0.04539463385538339</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02958283797452146</v>
+        <v>0.03188816057916282</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.03239185710182695</v>
+        <v>0.03084122906325864</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0465875366567327</v>
+        <v>0.04763998768346427</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04941653959577363</v>
+        <v>0.05002989245872538</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02393756653767218</v>
+        <v>0.02292744426778668</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0343760963521003</v>
+        <v>0.03539791081293719</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0346976973691077</v>
+        <v>0.03671341213793384</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04085238062367896</v>
+        <v>0.04052955331068344</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>0.02509794859905286</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.04642388233941603</v>
+        <v>0.04642388233941602</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.0261133074788859</v>
@@ -1509,7 +1509,7 @@
         <v>0.01777877431888717</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04025304007388753</v>
+        <v>0.04025304007388752</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01281348033284369</v>
+        <v>0.01590503876800365</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01295037809137611</v>
+        <v>0.01319398407748382</v>
       </c>
       <c r="E23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01759696082093261</v>
+        <v>0.01809720790622197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.008127817328988748</v>
+        <v>0.008196011934682232</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0113483681053448</v>
+        <v>0.01376413806027386</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01245924882028751</v>
+        <v>0.01239686938586666</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03239684367036628</v>
+        <v>0.03313083947794195</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01299273723312393</v>
+        <v>0.01270960870539135</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01626363451781949</v>
+        <v>0.01681381267813179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.009214677307128442</v>
+        <v>0.008871079909305319</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03037637819974505</v>
+        <v>0.0303810985384099</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06783970563471171</v>
+        <v>0.07304394289933978</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07247061729001604</v>
+        <v>0.06980021969572181</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02223472113889955</v>
+        <v>0.02218573724877657</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05637212765639361</v>
+        <v>0.05235304886121669</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04375310205238329</v>
+        <v>0.04642171100229909</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.04454248975834427</v>
+        <v>0.04733083575117245</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.04912404663831257</v>
+        <v>0.04769998205844003</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06215133483335149</v>
+        <v>0.0627741259628871</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0420560788340598</v>
+        <v>0.04181836888916974</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.04489046034269705</v>
+        <v>0.04613391556085455</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03272689157742009</v>
+        <v>0.03170770559897265</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05208792022850487</v>
+        <v>0.05209893500159007</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.01616244951944801</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.03054898305467278</v>
+        <v>0.03054898305467277</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.01039950783791335</v>
@@ -1645,7 +1645,7 @@
         <v>0.01285362159469058</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02685906644448946</v>
+        <v>0.02685906644448947</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01414848680079595</v>
+        <v>0.01441671680108737</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006449653830936497</v>
+        <v>0.006543443127661691</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01830734087384408</v>
+        <v>0.01770195208783682</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01615517333972397</v>
+        <v>0.01617893488136041</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01226777890256199</v>
+        <v>0.01216397157713051</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.02598682349423515</v>
+        <v>0.02570243198526822</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01610657048224176</v>
+        <v>0.01633018091644395</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01030852208111172</v>
+        <v>0.01007083777544465</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.02381487431369245</v>
+        <v>0.02344928920123319</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02363104247314323</v>
+        <v>0.02441980234409478</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01343922874201816</v>
+        <v>0.01337330100080003</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02942885082304101</v>
+        <v>0.02860337970124353</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02607362106024681</v>
+        <v>0.02607739144409229</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.02099387039241698</v>
+        <v>0.02124415780359296</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.03595319962307084</v>
+        <v>0.03553649131119944</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02299264258588515</v>
+        <v>0.02349212333342974</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.01588208482769213</v>
+        <v>0.01576749351607956</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.03110430454993354</v>
+        <v>0.03075495177229562</v>
       </c>
     </row>
     <row r="28">
@@ -2008,37 +2008,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4143</v>
+        <v>4151</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3772</v>
+        <v>2959</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2260</v>
+        <v>2278</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>5834</v>
+        <v>5013</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1091</v>
+        <v>1289</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9549</v>
+        <v>9937</v>
       </c>
     </row>
     <row r="7">
@@ -2050,37 +2050,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>7778</v>
+        <v>7712</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9039</v>
+        <v>7827</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>25285</v>
+        <v>25696</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5829</v>
+        <v>4972</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14633</v>
+        <v>14807</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>6862</v>
+        <v>5817</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21945</v>
+        <v>20703</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4904</v>
+        <v>5253</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>17273</v>
+        <v>18465</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12133</v>
+        <v>10720</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>38360</v>
+        <v>37861</v>
       </c>
     </row>
     <row r="8">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4904</v>
+        <v>4772</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1823</v>
+        <v>1852</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2007</v>
+        <v>1881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2785</v>
+        <v>2819</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>7792</v>
+        <v>7229</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2704</v>
+        <v>2834</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8673</v>
+        <v>8706</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4841</v>
+        <v>5631</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10677</v>
+        <v>10827</v>
       </c>
     </row>
     <row r="11">
@@ -2227,40 +2227,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8467</v>
+        <v>8116</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18907</v>
+        <v>19538</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10501</v>
+        <v>9788</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14414</v>
+        <v>12721</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7950</v>
+        <v>8155</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13134</v>
+        <v>12065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12367</v>
+        <v>12442</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>24717</v>
+        <v>25963</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12073</v>
+        <v>13349</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26453</v>
+        <v>27096</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17312</v>
+        <v>18669</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>32217</v>
+        <v>30096</v>
       </c>
     </row>
     <row r="12">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1578</v>
+        <v>1129</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3789</v>
+        <v>3696</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3620</v>
+        <v>3831</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3072</v>
+        <v>3035</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13625</v>
+        <v>13066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3852</v>
+        <v>4580</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13166</v>
+        <v>13249</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6923</v>
+        <v>6589</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19493</v>
+        <v>20326</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5767</v>
+        <v>5730</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>19804</v>
+        <v>19140</v>
       </c>
     </row>
     <row r="15">
@@ -2407,40 +2407,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14231</v>
+        <v>14563</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18195</v>
+        <v>17658</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8911</v>
+        <v>7896</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16119</v>
+        <v>15685</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14813</v>
+        <v>14436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31774</v>
+        <v>31909</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>15395</v>
+        <v>15219</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28404</v>
+        <v>28506</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23043</v>
+        <v>22361</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43310</v>
+        <v>43400</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19016</v>
+        <v>19078</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>39062</v>
+        <v>37969</v>
       </c>
     </row>
     <row r="16">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4006</v>
+        <v>4054</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6323</v>
+        <v>6197</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3120</v>
+        <v>3150</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12922</v>
+        <v>13209</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4927</v>
+        <v>4922</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>9548</v>
+        <v>9196</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4100</v>
+        <v>5099</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>16160</v>
+        <v>15779</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11784</v>
+        <v>12150</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>19125</v>
+        <v>18672</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>9318</v>
+        <v>9135</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>31382</v>
+        <v>31535</v>
       </c>
     </row>
     <row r="19">
@@ -2587,40 +2587,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16375</v>
+        <v>16810</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24036</v>
+        <v>24242</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16226</v>
+        <v>14815</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31036</v>
+        <v>31459</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18697</v>
+        <v>17084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>25749</v>
+        <v>25236</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16523</v>
+        <v>17793</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31172</v>
+        <v>30240</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>29669</v>
+        <v>31305</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>42183</v>
+        <v>41570</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27131</v>
+        <v>28172</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>55127</v>
+        <v>54748</v>
       </c>
     </row>
     <row r="20">
@@ -2726,37 +2726,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5744</v>
+        <v>5103</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9406</v>
+        <v>9817</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2433</v>
+        <v>2437</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>4975</v>
+        <v>5132</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5929</v>
+        <v>6003</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>8563</v>
+        <v>8832</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3862</v>
+        <v>3276</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12292</v>
+        <v>12896</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>10973</v>
+        <v>10831</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>20626</v>
+        <v>21235</v>
       </c>
     </row>
     <row r="23">
@@ -2767,40 +2767,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6189</v>
+        <v>7035</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19327</v>
+        <v>18497</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>15209</v>
+        <v>14899</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25454</v>
+        <v>25457</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13353</v>
+        <v>14127</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18138</v>
+        <v>19508</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22897</v>
+        <v>22091</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20593</v>
+        <v>19786</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15696</v>
+        <v>17080</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>30420</v>
+        <v>31938</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>31558</v>
+        <v>31974</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>39598</v>
+        <v>40573</v>
       </c>
     </row>
     <row r="24">
@@ -2903,40 +2903,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>910</v>
+        <v>944</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4663</v>
+        <v>4090</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2801</v>
+        <v>2817</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>6583</v>
+        <v>6353</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1789</v>
+        <v>1798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4924</v>
+        <v>4831</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9954</v>
+        <v>9934</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4465</v>
+        <v>3747</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6832</v>
+        <v>7422</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8805</v>
+        <v>9059</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>18012</v>
+        <v>18259</v>
       </c>
     </row>
     <row r="27">
@@ -2947,40 +2947,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8403</v>
+        <v>8382</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17687</v>
+        <v>17890</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12593</v>
+        <v>11640</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17278</v>
+        <v>18479</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10145</v>
+        <v>10936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>11467</v>
+        <v>10918</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17599</v>
+        <v>17997</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21702</v>
+        <v>21971</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>15213</v>
+        <v>14571</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>22818</v>
+        <v>23496</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>24708</v>
+        <v>26143</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34571</v>
+        <v>34298</v>
       </c>
     </row>
     <row r="28">
@@ -3083,40 +3083,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2689</v>
+        <v>3338</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3236</v>
+        <v>3297</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5459</v>
+        <v>5614</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2714</v>
+        <v>2737</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>4414</v>
+        <v>5354</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4986</v>
+        <v>4961</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>15052</v>
+        <v>15393</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>7065</v>
+        <v>6911</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>10390</v>
+        <v>10741</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>6056</v>
+        <v>5830</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>23536</v>
+        <v>23539</v>
       </c>
     </row>
     <row r="31">
@@ -3127,40 +3127,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14238</v>
+        <v>15331</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18107</v>
+        <v>17440</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5714</v>
+        <v>5702</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>17487</v>
+        <v>16240</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14610</v>
+        <v>15501</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>17326</v>
+        <v>18411</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>19658</v>
+        <v>19088</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>28876</v>
+        <v>29165</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>22870</v>
+        <v>22740</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>28677</v>
+        <v>29472</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>21507</v>
+        <v>20837</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>40358</v>
+        <v>40367</v>
       </c>
     </row>
     <row r="32">
@@ -3263,40 +3263,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>48484</v>
+        <v>49403</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21892</v>
+        <v>22211</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>64675</v>
+        <v>62537</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>57485</v>
+        <v>57570</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>43484</v>
+        <v>43116</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>97112</v>
+        <v>96049</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>112506</v>
+        <v>114068</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>71530</v>
+        <v>69880</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>173127</v>
+        <v>170470</v>
       </c>
     </row>
     <row r="35">
@@ -3307,40 +3307,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>80978</v>
+        <v>83681</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>45617</v>
+        <v>45394</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>103965</v>
+        <v>101049</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>92778</v>
+        <v>92791</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>74414</v>
+        <v>75301</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>134355</v>
+        <v>132798</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>160606</v>
+        <v>164095</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>110204</v>
+        <v>109409</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>226119</v>
+        <v>223580</v>
       </c>
     </row>
     <row r="36">
